--- a/VLSM táblázat.xlsx
+++ b/VLSM táblázat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\zsirmik\Hálózatok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Bela\Git\halozatProjektek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C986786-6B84-405C-959B-BA9FAC25BE82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD21DD2-FA03-4639-BE94-260BF3FBFF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{012D1D82-EB97-4B95-AC21-450975C8649A}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{012D1D82-EB97-4B95-AC21-450975C8649A}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -100,10 +100,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -421,7 +421,7 @@
   <dimension ref="A1:I257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,13 +457,13 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -472,13 +472,13 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -487,13 +487,13 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -502,13 +502,13 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -517,13 +517,13 @@
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -532,13 +532,13 @@
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -547,13 +547,13 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -562,13 +562,13 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -577,13 +577,13 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -592,13 +592,13 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -607,13 +607,13 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -622,13 +622,13 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -637,13 +637,13 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -652,13 +652,13 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -667,13 +667,13 @@
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -682,13 +682,13 @@
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -697,13 +697,13 @@
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -712,13 +712,13 @@
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -727,13 +727,13 @@
       <c r="B20">
         <v>18</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -742,13 +742,13 @@
       <c r="B21">
         <v>19</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -757,13 +757,13 @@
       <c r="B22">
         <v>20</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -772,13 +772,13 @@
       <c r="B23">
         <v>21</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -787,13 +787,13 @@
       <c r="B24">
         <v>22</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -802,13 +802,13 @@
       <c r="B25">
         <v>23</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -817,13 +817,13 @@
       <c r="B26">
         <v>24</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -832,13 +832,13 @@
       <c r="B27">
         <v>25</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -847,13 +847,13 @@
       <c r="B28">
         <v>26</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -862,13 +862,13 @@
       <c r="B29">
         <v>27</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -877,13 +877,13 @@
       <c r="B30">
         <v>28</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -892,13 +892,13 @@
       <c r="B31">
         <v>29</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -907,13 +907,13 @@
       <c r="B32">
         <v>30</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -922,13 +922,13 @@
       <c r="B33">
         <v>31</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -937,13 +937,13 @@
       <c r="B34">
         <v>32</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -952,13 +952,13 @@
       <c r="B35">
         <v>33</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -967,13 +967,13 @@
       <c r="B36">
         <v>34</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -982,13 +982,13 @@
       <c r="B37">
         <v>35</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -997,13 +997,13 @@
       <c r="B38">
         <v>36</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1012,13 +1012,13 @@
       <c r="B39">
         <v>37</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1027,13 +1027,13 @@
       <c r="B40">
         <v>38</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -1042,13 +1042,13 @@
       <c r="B41">
         <v>39</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -1057,13 +1057,13 @@
       <c r="B42">
         <v>40</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -1072,13 +1072,13 @@
       <c r="B43">
         <v>41</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -1087,13 +1087,13 @@
       <c r="B44">
         <v>42</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -1102,13 +1102,13 @@
       <c r="B45">
         <v>43</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -1117,13 +1117,13 @@
       <c r="B46">
         <v>44</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -1132,13 +1132,13 @@
       <c r="B47">
         <v>45</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -1147,13 +1147,13 @@
       <c r="B48">
         <v>46</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -1162,13 +1162,13 @@
       <c r="B49">
         <v>47</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -1177,13 +1177,13 @@
       <c r="B50">
         <v>48</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -1192,13 +1192,13 @@
       <c r="B51">
         <v>49</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -1207,13 +1207,13 @@
       <c r="B52">
         <v>50</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -1222,13 +1222,13 @@
       <c r="B53">
         <v>51</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -1237,13 +1237,13 @@
       <c r="B54">
         <v>52</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -1252,13 +1252,13 @@
       <c r="B55">
         <v>53</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -1267,13 +1267,13 @@
       <c r="B56">
         <v>54</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -1282,13 +1282,13 @@
       <c r="B57">
         <v>55</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -1297,13 +1297,13 @@
       <c r="B58">
         <v>56</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -1312,13 +1312,13 @@
       <c r="B59">
         <v>57</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -1327,13 +1327,13 @@
       <c r="B60">
         <v>58</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -1342,13 +1342,13 @@
       <c r="B61">
         <v>59</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -1357,13 +1357,13 @@
       <c r="B62">
         <v>60</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -1372,13 +1372,13 @@
       <c r="B63">
         <v>61</v>
       </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -1387,13 +1387,13 @@
       <c r="B64">
         <v>62</v>
       </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -1402,13 +1402,13 @@
       <c r="B65">
         <v>63</v>
       </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -1417,13 +1417,13 @@
       <c r="B66">
         <v>64</v>
       </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -1432,13 +1432,13 @@
       <c r="B67">
         <v>65</v>
       </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -1447,13 +1447,13 @@
       <c r="B68">
         <v>66</v>
       </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="2"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -1462,13 +1462,13 @@
       <c r="B69">
         <v>67</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="2"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -1477,13 +1477,13 @@
       <c r="B70">
         <v>68</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="2"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -1492,13 +1492,13 @@
       <c r="B71">
         <v>69</v>
       </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="2"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -1507,13 +1507,13 @@
       <c r="B72">
         <v>70</v>
       </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="2"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -1522,13 +1522,13 @@
       <c r="B73">
         <v>71</v>
       </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="2"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -1537,13 +1537,13 @@
       <c r="B74">
         <v>72</v>
       </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="2"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -1552,13 +1552,13 @@
       <c r="B75">
         <v>73</v>
       </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="2"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -1567,13 +1567,13 @@
       <c r="B76">
         <v>74</v>
       </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -1582,13 +1582,13 @@
       <c r="B77">
         <v>75</v>
       </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="2"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
@@ -1597,13 +1597,13 @@
       <c r="B78">
         <v>76</v>
       </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -1612,13 +1612,13 @@
       <c r="B79">
         <v>77</v>
       </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="2"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -1627,13 +1627,13 @@
       <c r="B80">
         <v>78</v>
       </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="2"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
@@ -1642,13 +1642,13 @@
       <c r="B81">
         <v>79</v>
       </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="2"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -1657,13 +1657,13 @@
       <c r="B82">
         <v>80</v>
       </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="2"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -1672,13 +1672,13 @@
       <c r="B83">
         <v>81</v>
       </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="2"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -1687,13 +1687,13 @@
       <c r="B84">
         <v>82</v>
       </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="2"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -1702,13 +1702,13 @@
       <c r="B85">
         <v>83</v>
       </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="2"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -1717,13 +1717,13 @@
       <c r="B86">
         <v>84</v>
       </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -1732,13 +1732,13 @@
       <c r="B87">
         <v>85</v>
       </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -1747,13 +1747,13 @@
       <c r="B88">
         <v>86</v>
       </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="2"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -1762,13 +1762,13 @@
       <c r="B89">
         <v>87</v>
       </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -1777,13 +1777,13 @@
       <c r="B90">
         <v>88</v>
       </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -1792,13 +1792,13 @@
       <c r="B91">
         <v>89</v>
       </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="2"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -1807,13 +1807,13 @@
       <c r="B92">
         <v>90</v>
       </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="2"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -1822,13 +1822,13 @@
       <c r="B93">
         <v>91</v>
       </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="2"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -1837,13 +1837,13 @@
       <c r="B94">
         <v>92</v>
       </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="2"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -1852,13 +1852,13 @@
       <c r="B95">
         <v>93</v>
       </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -1867,13 +1867,13 @@
       <c r="B96">
         <v>94</v>
       </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="2"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
@@ -1882,13 +1882,13 @@
       <c r="B97">
         <v>95</v>
       </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -1897,13 +1897,13 @@
       <c r="B98">
         <v>96</v>
       </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -1912,13 +1912,13 @@
       <c r="B99">
         <v>97</v>
       </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="2"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -1927,13 +1927,13 @@
       <c r="B100">
         <v>98</v>
       </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -1942,13 +1942,13 @@
       <c r="B101">
         <v>99</v>
       </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="2"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
@@ -1957,13 +1957,13 @@
       <c r="B102">
         <v>100</v>
       </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="2"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -1972,13 +1972,13 @@
       <c r="B103">
         <v>101</v>
       </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="2"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
@@ -1987,13 +1987,13 @@
       <c r="B104">
         <v>102</v>
       </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="2"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -2002,13 +2002,13 @@
       <c r="B105">
         <v>103</v>
       </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="2"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
@@ -2017,13 +2017,13 @@
       <c r="B106">
         <v>104</v>
       </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="2"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -2032,13 +2032,13 @@
       <c r="B107">
         <v>105</v>
       </c>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="2"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -2047,13 +2047,13 @@
       <c r="B108">
         <v>106</v>
       </c>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="2"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -2062,13 +2062,13 @@
       <c r="B109">
         <v>107</v>
       </c>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="2"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
@@ -2077,13 +2077,13 @@
       <c r="B110">
         <v>108</v>
       </c>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="2"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -2092,13 +2092,13 @@
       <c r="B111">
         <v>109</v>
       </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="2"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -2107,13 +2107,13 @@
       <c r="B112">
         <v>110</v>
       </c>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="2"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
@@ -2122,13 +2122,13 @@
       <c r="B113">
         <v>111</v>
       </c>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="2"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -2137,13 +2137,13 @@
       <c r="B114">
         <v>112</v>
       </c>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="2"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -2152,13 +2152,13 @@
       <c r="B115">
         <v>113</v>
       </c>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="2"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -2167,13 +2167,13 @@
       <c r="B116">
         <v>114</v>
       </c>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="2"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -2182,13 +2182,13 @@
       <c r="B117">
         <v>115</v>
       </c>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="2"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
@@ -2197,13 +2197,13 @@
       <c r="B118">
         <v>116</v>
       </c>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="2"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -2212,13 +2212,13 @@
       <c r="B119">
         <v>117</v>
       </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="2"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
@@ -2227,13 +2227,13 @@
       <c r="B120">
         <v>118</v>
       </c>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="2"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
@@ -2242,13 +2242,13 @@
       <c r="B121">
         <v>119</v>
       </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="2"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
@@ -2257,13 +2257,13 @@
       <c r="B122">
         <v>120</v>
       </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="2"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
@@ -2272,13 +2272,13 @@
       <c r="B123">
         <v>121</v>
       </c>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="2"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
@@ -2287,13 +2287,13 @@
       <c r="B124">
         <v>122</v>
       </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="2"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -2302,13 +2302,13 @@
       <c r="B125">
         <v>123</v>
       </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="2"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
@@ -2317,13 +2317,13 @@
       <c r="B126">
         <v>124</v>
       </c>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="2"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -2332,13 +2332,13 @@
       <c r="B127">
         <v>125</v>
       </c>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="2"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -2347,13 +2347,13 @@
       <c r="B128">
         <v>126</v>
       </c>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="2"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
@@ -2362,13 +2362,13 @@
       <c r="B129">
         <v>127</v>
       </c>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="2"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
@@ -2377,13 +2377,13 @@
       <c r="B130">
         <v>128</v>
       </c>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="2"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
@@ -2392,13 +2392,13 @@
       <c r="B131">
         <v>129</v>
       </c>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="2"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
@@ -2407,13 +2407,13 @@
       <c r="B132">
         <v>130</v>
       </c>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="2"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
@@ -2422,13 +2422,13 @@
       <c r="B133">
         <v>131</v>
       </c>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="2"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
@@ -2437,13 +2437,13 @@
       <c r="B134">
         <v>132</v>
       </c>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="2"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
@@ -2452,13 +2452,13 @@
       <c r="B135">
         <v>133</v>
       </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="2"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
@@ -2467,13 +2467,13 @@
       <c r="B136">
         <v>134</v>
       </c>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="2"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
@@ -2482,13 +2482,13 @@
       <c r="B137">
         <v>135</v>
       </c>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
-      <c r="I137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="2"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
@@ -2497,13 +2497,13 @@
       <c r="B138">
         <v>136</v>
       </c>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="2"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
@@ -2512,13 +2512,13 @@
       <c r="B139">
         <v>137</v>
       </c>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="2"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
@@ -2527,13 +2527,13 @@
       <c r="B140">
         <v>138</v>
       </c>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
-      <c r="I140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="2"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
@@ -2542,13 +2542,13 @@
       <c r="B141">
         <v>139</v>
       </c>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="2"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
@@ -2557,13 +2557,13 @@
       <c r="B142">
         <v>140</v>
       </c>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="2"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
@@ -2572,13 +2572,13 @@
       <c r="B143">
         <v>141</v>
       </c>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="2"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
@@ -2587,13 +2587,13 @@
       <c r="B144">
         <v>142</v>
       </c>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
-      <c r="I144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="2"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
@@ -2602,13 +2602,13 @@
       <c r="B145">
         <v>143</v>
       </c>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="2"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
@@ -2617,13 +2617,13 @@
       <c r="B146">
         <v>144</v>
       </c>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="2"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
@@ -2632,13 +2632,13 @@
       <c r="B147">
         <v>145</v>
       </c>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="2"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
@@ -2647,13 +2647,13 @@
       <c r="B148">
         <v>146</v>
       </c>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="2"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
@@ -2662,13 +2662,13 @@
       <c r="B149">
         <v>147</v>
       </c>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="2"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
@@ -2677,13 +2677,13 @@
       <c r="B150">
         <v>148</v>
       </c>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="2"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
@@ -2692,13 +2692,13 @@
       <c r="B151">
         <v>149</v>
       </c>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="2"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
@@ -2707,13 +2707,13 @@
       <c r="B152">
         <v>150</v>
       </c>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="2"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
@@ -2722,13 +2722,13 @@
       <c r="B153">
         <v>151</v>
       </c>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
-      <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
-      <c r="I153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="2"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
@@ -2737,13 +2737,13 @@
       <c r="B154">
         <v>152</v>
       </c>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
-      <c r="I154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
+      <c r="I154" s="2"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
@@ -2752,13 +2752,13 @@
       <c r="B155">
         <v>153</v>
       </c>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
-      <c r="I155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="2"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
@@ -2767,13 +2767,13 @@
       <c r="B156">
         <v>154</v>
       </c>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="2"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
@@ -2782,13 +2782,13 @@
       <c r="B157">
         <v>155</v>
       </c>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="2"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
@@ -2797,13 +2797,13 @@
       <c r="B158">
         <v>156</v>
       </c>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
-      <c r="H158" s="2"/>
-      <c r="I158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="2"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
@@ -2812,13 +2812,13 @@
       <c r="B159">
         <v>157</v>
       </c>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
-      <c r="I159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="2"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
@@ -2827,13 +2827,13 @@
       <c r="B160">
         <v>158</v>
       </c>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
-      <c r="G160" s="2"/>
-      <c r="H160" s="2"/>
-      <c r="I160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
+      <c r="I160" s="2"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
@@ -2842,13 +2842,13 @@
       <c r="B161">
         <v>159</v>
       </c>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
-      <c r="G161" s="2"/>
-      <c r="H161" s="2"/>
-      <c r="I161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="2"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
@@ -2857,13 +2857,13 @@
       <c r="B162">
         <v>160</v>
       </c>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
-      <c r="I162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="2"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
@@ -2872,13 +2872,13 @@
       <c r="B163">
         <v>161</v>
       </c>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
-      <c r="G163" s="2"/>
-      <c r="H163" s="2"/>
-      <c r="I163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="2"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
@@ -2887,13 +2887,13 @@
       <c r="B164">
         <v>162</v>
       </c>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
-      <c r="G164" s="2"/>
-      <c r="H164" s="2"/>
-      <c r="I164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="2"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
@@ -2902,13 +2902,13 @@
       <c r="B165">
         <v>163</v>
       </c>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
-      <c r="G165" s="2"/>
-      <c r="H165" s="2"/>
-      <c r="I165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="2"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
@@ -2917,13 +2917,13 @@
       <c r="B166">
         <v>164</v>
       </c>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
-      <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
-      <c r="I166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="2"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
@@ -2932,13 +2932,13 @@
       <c r="B167">
         <v>165</v>
       </c>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
-      <c r="G167" s="2"/>
-      <c r="H167" s="2"/>
-      <c r="I167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="3"/>
+      <c r="I167" s="2"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
@@ -2947,13 +2947,13 @@
       <c r="B168">
         <v>166</v>
       </c>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
-      <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
-      <c r="I168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3"/>
+      <c r="I168" s="2"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
@@ -2962,13 +2962,13 @@
       <c r="B169">
         <v>167</v>
       </c>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
-      <c r="G169" s="2"/>
-      <c r="H169" s="2"/>
-      <c r="I169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+      <c r="I169" s="2"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
@@ -2977,13 +2977,13 @@
       <c r="B170">
         <v>168</v>
       </c>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
-      <c r="G170" s="2"/>
-      <c r="H170" s="2"/>
-      <c r="I170" s="3"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="2"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
@@ -2992,13 +2992,13 @@
       <c r="B171">
         <v>169</v>
       </c>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
-      <c r="G171" s="2"/>
-      <c r="H171" s="2"/>
-      <c r="I171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="2"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
@@ -3007,13 +3007,13 @@
       <c r="B172">
         <v>170</v>
       </c>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
-      <c r="F172" s="2"/>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
-      <c r="I172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
+      <c r="I172" s="2"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
@@ -3022,13 +3022,13 @@
       <c r="B173">
         <v>171</v>
       </c>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
-      <c r="I173" s="3"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+      <c r="I173" s="2"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
@@ -3037,13 +3037,13 @@
       <c r="B174">
         <v>172</v>
       </c>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
-      <c r="I174" s="3"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="2"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
@@ -3052,13 +3052,13 @@
       <c r="B175">
         <v>173</v>
       </c>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
-      <c r="I175" s="3"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+      <c r="I175" s="2"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
@@ -3067,13 +3067,13 @@
       <c r="B176">
         <v>174</v>
       </c>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
-      <c r="I176" s="3"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
+      <c r="I176" s="2"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
@@ -3082,13 +3082,13 @@
       <c r="B177">
         <v>175</v>
       </c>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
-      <c r="I177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="2"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
@@ -3097,13 +3097,13 @@
       <c r="B178">
         <v>176</v>
       </c>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
-      <c r="G178" s="2"/>
-      <c r="H178" s="2"/>
-      <c r="I178" s="3"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
+      <c r="I178" s="2"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
@@ -3112,13 +3112,13 @@
       <c r="B179">
         <v>177</v>
       </c>
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
-      <c r="H179" s="2"/>
-      <c r="I179" s="3"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
+      <c r="I179" s="2"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
@@ -3127,13 +3127,13 @@
       <c r="B180">
         <v>178</v>
       </c>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
-      <c r="H180" s="2"/>
-      <c r="I180" s="3"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="3"/>
+      <c r="I180" s="2"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
@@ -3142,13 +3142,13 @@
       <c r="B181">
         <v>179</v>
       </c>
-      <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
-      <c r="G181" s="2"/>
-      <c r="H181" s="2"/>
-      <c r="I181" s="3"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="3"/>
+      <c r="I181" s="2"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
@@ -3157,13 +3157,13 @@
       <c r="B182">
         <v>180</v>
       </c>
-      <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
-      <c r="G182" s="2"/>
-      <c r="H182" s="2"/>
-      <c r="I182" s="3"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3"/>
+      <c r="I182" s="2"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
@@ -3172,13 +3172,13 @@
       <c r="B183">
         <v>181</v>
       </c>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
-      <c r="H183" s="2"/>
-      <c r="I183" s="3"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3"/>
+      <c r="I183" s="2"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
@@ -3187,13 +3187,13 @@
       <c r="B184">
         <v>182</v>
       </c>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
-      <c r="F184" s="2"/>
-      <c r="G184" s="2"/>
-      <c r="H184" s="2"/>
-      <c r="I184" s="3"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
+      <c r="I184" s="2"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
@@ -3202,13 +3202,13 @@
       <c r="B185">
         <v>183</v>
       </c>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
-      <c r="F185" s="2"/>
-      <c r="G185" s="2"/>
-      <c r="H185" s="2"/>
-      <c r="I185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3"/>
+      <c r="I185" s="2"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
@@ -3217,13 +3217,13 @@
       <c r="B186">
         <v>184</v>
       </c>
-      <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
-      <c r="E186" s="2"/>
-      <c r="F186" s="2"/>
-      <c r="G186" s="2"/>
-      <c r="H186" s="2"/>
-      <c r="I186" s="3"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
+      <c r="I186" s="2"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
@@ -3232,13 +3232,13 @@
       <c r="B187">
         <v>185</v>
       </c>
-      <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
-      <c r="F187" s="2"/>
-      <c r="G187" s="2"/>
-      <c r="H187" s="2"/>
-      <c r="I187" s="3"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
+      <c r="F187" s="3"/>
+      <c r="G187" s="3"/>
+      <c r="H187" s="3"/>
+      <c r="I187" s="2"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
@@ -3247,13 +3247,13 @@
       <c r="B188">
         <v>186</v>
       </c>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-      <c r="F188" s="2"/>
-      <c r="G188" s="2"/>
-      <c r="H188" s="2"/>
-      <c r="I188" s="3"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3"/>
+      <c r="I188" s="2"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
@@ -3262,13 +3262,13 @@
       <c r="B189">
         <v>187</v>
       </c>
-      <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
-      <c r="E189" s="2"/>
-      <c r="F189" s="2"/>
-      <c r="G189" s="2"/>
-      <c r="H189" s="2"/>
-      <c r="I189" s="3"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3"/>
+      <c r="I189" s="2"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
@@ -3277,13 +3277,13 @@
       <c r="B190">
         <v>188</v>
       </c>
-      <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
-      <c r="F190" s="2"/>
-      <c r="G190" s="2"/>
-      <c r="H190" s="2"/>
-      <c r="I190" s="3"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3"/>
+      <c r="I190" s="2"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
@@ -3292,13 +3292,13 @@
       <c r="B191">
         <v>189</v>
       </c>
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
-      <c r="G191" s="2"/>
-      <c r="H191" s="2"/>
-      <c r="I191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
+      <c r="H191" s="3"/>
+      <c r="I191" s="2"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
@@ -3307,13 +3307,13 @@
       <c r="B192">
         <v>190</v>
       </c>
-      <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
-      <c r="E192" s="2"/>
-      <c r="F192" s="2"/>
-      <c r="G192" s="2"/>
-      <c r="H192" s="2"/>
-      <c r="I192" s="3"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="3"/>
+      <c r="I192" s="2"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
@@ -3322,13 +3322,13 @@
       <c r="B193">
         <v>191</v>
       </c>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="2"/>
-      <c r="G193" s="2"/>
-      <c r="H193" s="2"/>
-      <c r="I193" s="3"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+      <c r="I193" s="2"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
@@ -3337,13 +3337,13 @@
       <c r="B194">
         <v>192</v>
       </c>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
-      <c r="F194" s="2"/>
-      <c r="G194" s="2"/>
-      <c r="H194" s="2"/>
-      <c r="I194" s="3"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3"/>
+      <c r="I194" s="2"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
@@ -3352,13 +3352,13 @@
       <c r="B195">
         <v>193</v>
       </c>
-      <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
-      <c r="F195" s="2"/>
-      <c r="G195" s="2"/>
-      <c r="H195" s="2"/>
-      <c r="I195" s="3"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
+      <c r="I195" s="2"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
@@ -3367,13 +3367,13 @@
       <c r="B196">
         <v>194</v>
       </c>
-      <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
-      <c r="E196" s="2"/>
-      <c r="F196" s="2"/>
-      <c r="G196" s="2"/>
-      <c r="H196" s="2"/>
-      <c r="I196" s="3"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
+      <c r="I196" s="2"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
@@ -3382,13 +3382,13 @@
       <c r="B197">
         <v>195</v>
       </c>
-      <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
-      <c r="E197" s="2"/>
-      <c r="F197" s="2"/>
-      <c r="G197" s="2"/>
-      <c r="H197" s="2"/>
-      <c r="I197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
+      <c r="I197" s="2"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
@@ -3397,13 +3397,13 @@
       <c r="B198">
         <v>196</v>
       </c>
-      <c r="C198" s="2"/>
-      <c r="D198" s="2"/>
-      <c r="E198" s="2"/>
-      <c r="F198" s="2"/>
-      <c r="G198" s="2"/>
-      <c r="H198" s="2"/>
-      <c r="I198" s="3"/>
+      <c r="C198" s="3"/>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3"/>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="3"/>
+      <c r="I198" s="2"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
@@ -3412,13 +3412,13 @@
       <c r="B199">
         <v>197</v>
       </c>
-      <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
-      <c r="E199" s="2"/>
-      <c r="F199" s="2"/>
-      <c r="G199" s="2"/>
-      <c r="H199" s="2"/>
-      <c r="I199" s="3"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+      <c r="I199" s="2"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
@@ -3427,13 +3427,13 @@
       <c r="B200">
         <v>198</v>
       </c>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
-      <c r="F200" s="2"/>
-      <c r="G200" s="2"/>
-      <c r="H200" s="2"/>
-      <c r="I200" s="3"/>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+      <c r="I200" s="2"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
@@ -3442,13 +3442,13 @@
       <c r="B201">
         <v>199</v>
       </c>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
-      <c r="F201" s="2"/>
-      <c r="G201" s="2"/>
-      <c r="H201" s="2"/>
-      <c r="I201" s="3"/>
+      <c r="C201" s="3"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="3"/>
+      <c r="H201" s="3"/>
+      <c r="I201" s="2"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
@@ -3457,13 +3457,13 @@
       <c r="B202">
         <v>200</v>
       </c>
-      <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
-      <c r="E202" s="2"/>
-      <c r="F202" s="2"/>
-      <c r="G202" s="2"/>
-      <c r="H202" s="2"/>
-      <c r="I202" s="3"/>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3"/>
+      <c r="I202" s="2"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
@@ -3472,13 +3472,13 @@
       <c r="B203">
         <v>201</v>
       </c>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
-      <c r="E203" s="2"/>
-      <c r="F203" s="2"/>
-      <c r="G203" s="2"/>
-      <c r="H203" s="2"/>
-      <c r="I203" s="3"/>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="3"/>
+      <c r="H203" s="3"/>
+      <c r="I203" s="2"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
@@ -3487,13 +3487,13 @@
       <c r="B204">
         <v>202</v>
       </c>
-      <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
-      <c r="E204" s="2"/>
-      <c r="F204" s="2"/>
-      <c r="G204" s="2"/>
-      <c r="H204" s="2"/>
-      <c r="I204" s="3"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
+      <c r="I204" s="2"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
@@ -3502,13 +3502,13 @@
       <c r="B205">
         <v>203</v>
       </c>
-      <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-      <c r="F205" s="2"/>
-      <c r="G205" s="2"/>
-      <c r="H205" s="2"/>
-      <c r="I205" s="3"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3"/>
+      <c r="I205" s="2"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
@@ -3517,13 +3517,13 @@
       <c r="B206">
         <v>204</v>
       </c>
-      <c r="C206" s="2"/>
-      <c r="D206" s="2"/>
-      <c r="E206" s="2"/>
-      <c r="F206" s="2"/>
-      <c r="G206" s="2"/>
-      <c r="H206" s="2"/>
-      <c r="I206" s="3"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
+      <c r="I206" s="2"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
@@ -3532,13 +3532,13 @@
       <c r="B207">
         <v>205</v>
       </c>
-      <c r="C207" s="2"/>
-      <c r="D207" s="2"/>
-      <c r="E207" s="2"/>
-      <c r="F207" s="2"/>
-      <c r="G207" s="2"/>
-      <c r="H207" s="2"/>
-      <c r="I207" s="3"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
+      <c r="I207" s="2"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
@@ -3547,13 +3547,13 @@
       <c r="B208">
         <v>206</v>
       </c>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
-      <c r="E208" s="2"/>
-      <c r="F208" s="2"/>
-      <c r="G208" s="2"/>
-      <c r="H208" s="2"/>
-      <c r="I208" s="3"/>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3"/>
+      <c r="I208" s="2"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
@@ -3562,13 +3562,13 @@
       <c r="B209">
         <v>207</v>
       </c>
-      <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
-      <c r="E209" s="2"/>
-      <c r="F209" s="2"/>
-      <c r="G209" s="2"/>
-      <c r="H209" s="2"/>
-      <c r="I209" s="3"/>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3"/>
+      <c r="I209" s="2"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
@@ -3577,13 +3577,13 @@
       <c r="B210">
         <v>208</v>
       </c>
-      <c r="C210" s="2"/>
-      <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
-      <c r="F210" s="2"/>
-      <c r="G210" s="2"/>
-      <c r="H210" s="2"/>
-      <c r="I210" s="3"/>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
+      <c r="F210" s="3"/>
+      <c r="G210" s="3"/>
+      <c r="H210" s="3"/>
+      <c r="I210" s="2"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
@@ -3592,13 +3592,13 @@
       <c r="B211">
         <v>209</v>
       </c>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
-      <c r="G211" s="2"/>
-      <c r="H211" s="2"/>
-      <c r="I211" s="3"/>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
+      <c r="F211" s="3"/>
+      <c r="G211" s="3"/>
+      <c r="H211" s="3"/>
+      <c r="I211" s="2"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
@@ -3607,13 +3607,13 @@
       <c r="B212">
         <v>210</v>
       </c>
-      <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
-      <c r="E212" s="2"/>
-      <c r="F212" s="2"/>
-      <c r="G212" s="2"/>
-      <c r="H212" s="2"/>
-      <c r="I212" s="3"/>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3"/>
+      <c r="E212" s="3"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="3"/>
+      <c r="H212" s="3"/>
+      <c r="I212" s="2"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
@@ -3622,13 +3622,13 @@
       <c r="B213">
         <v>211</v>
       </c>
-      <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
-      <c r="F213" s="2"/>
-      <c r="G213" s="2"/>
-      <c r="H213" s="2"/>
-      <c r="I213" s="3"/>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3"/>
+      <c r="F213" s="3"/>
+      <c r="G213" s="3"/>
+      <c r="H213" s="3"/>
+      <c r="I213" s="2"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
@@ -3637,13 +3637,13 @@
       <c r="B214">
         <v>212</v>
       </c>
-      <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
-      <c r="E214" s="2"/>
-      <c r="F214" s="2"/>
-      <c r="G214" s="2"/>
-      <c r="H214" s="2"/>
-      <c r="I214" s="3"/>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3"/>
+      <c r="F214" s="3"/>
+      <c r="G214" s="3"/>
+      <c r="H214" s="3"/>
+      <c r="I214" s="2"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
@@ -3652,13 +3652,13 @@
       <c r="B215">
         <v>213</v>
       </c>
-      <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
-      <c r="E215" s="2"/>
-      <c r="F215" s="2"/>
-      <c r="G215" s="2"/>
-      <c r="H215" s="2"/>
-      <c r="I215" s="3"/>
+      <c r="C215" s="3"/>
+      <c r="D215" s="3"/>
+      <c r="E215" s="3"/>
+      <c r="F215" s="3"/>
+      <c r="G215" s="3"/>
+      <c r="H215" s="3"/>
+      <c r="I215" s="2"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
@@ -3667,13 +3667,13 @@
       <c r="B216">
         <v>214</v>
       </c>
-      <c r="C216" s="2"/>
-      <c r="D216" s="2"/>
-      <c r="E216" s="2"/>
-      <c r="F216" s="2"/>
-      <c r="G216" s="2"/>
-      <c r="H216" s="2"/>
-      <c r="I216" s="3"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="3"/>
+      <c r="G216" s="3"/>
+      <c r="H216" s="3"/>
+      <c r="I216" s="2"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
@@ -3682,13 +3682,13 @@
       <c r="B217">
         <v>215</v>
       </c>
-      <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
-      <c r="E217" s="2"/>
-      <c r="F217" s="2"/>
-      <c r="G217" s="2"/>
-      <c r="H217" s="2"/>
-      <c r="I217" s="3"/>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="3"/>
+      <c r="G217" s="3"/>
+      <c r="H217" s="3"/>
+      <c r="I217" s="2"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
@@ -3697,13 +3697,13 @@
       <c r="B218">
         <v>216</v>
       </c>
-      <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
-      <c r="F218" s="2"/>
-      <c r="G218" s="2"/>
-      <c r="H218" s="2"/>
-      <c r="I218" s="3"/>
+      <c r="C218" s="3"/>
+      <c r="D218" s="3"/>
+      <c r="E218" s="3"/>
+      <c r="F218" s="3"/>
+      <c r="G218" s="3"/>
+      <c r="H218" s="3"/>
+      <c r="I218" s="2"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
@@ -3712,13 +3712,13 @@
       <c r="B219">
         <v>217</v>
       </c>
-      <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
-      <c r="F219" s="2"/>
-      <c r="G219" s="2"/>
-      <c r="H219" s="2"/>
-      <c r="I219" s="3"/>
+      <c r="C219" s="3"/>
+      <c r="D219" s="3"/>
+      <c r="E219" s="3"/>
+      <c r="F219" s="3"/>
+      <c r="G219" s="3"/>
+      <c r="H219" s="3"/>
+      <c r="I219" s="2"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
@@ -3727,13 +3727,13 @@
       <c r="B220">
         <v>218</v>
       </c>
-      <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
-      <c r="E220" s="2"/>
-      <c r="F220" s="2"/>
-      <c r="G220" s="2"/>
-      <c r="H220" s="2"/>
-      <c r="I220" s="3"/>
+      <c r="C220" s="3"/>
+      <c r="D220" s="3"/>
+      <c r="E220" s="3"/>
+      <c r="F220" s="3"/>
+      <c r="G220" s="3"/>
+      <c r="H220" s="3"/>
+      <c r="I220" s="2"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
@@ -3742,13 +3742,13 @@
       <c r="B221">
         <v>219</v>
       </c>
-      <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
-      <c r="E221" s="2"/>
-      <c r="F221" s="2"/>
-      <c r="G221" s="2"/>
-      <c r="H221" s="2"/>
-      <c r="I221" s="3"/>
+      <c r="C221" s="3"/>
+      <c r="D221" s="3"/>
+      <c r="E221" s="3"/>
+      <c r="F221" s="3"/>
+      <c r="G221" s="3"/>
+      <c r="H221" s="3"/>
+      <c r="I221" s="2"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
@@ -3757,13 +3757,13 @@
       <c r="B222">
         <v>220</v>
       </c>
-      <c r="C222" s="2"/>
-      <c r="D222" s="2"/>
-      <c r="E222" s="2"/>
-      <c r="F222" s="2"/>
-      <c r="G222" s="2"/>
-      <c r="H222" s="2"/>
-      <c r="I222" s="3"/>
+      <c r="C222" s="3"/>
+      <c r="D222" s="3"/>
+      <c r="E222" s="3"/>
+      <c r="F222" s="3"/>
+      <c r="G222" s="3"/>
+      <c r="H222" s="3"/>
+      <c r="I222" s="2"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
@@ -3772,13 +3772,13 @@
       <c r="B223">
         <v>221</v>
       </c>
-      <c r="C223" s="2"/>
-      <c r="D223" s="2"/>
-      <c r="E223" s="2"/>
-      <c r="F223" s="2"/>
-      <c r="G223" s="2"/>
-      <c r="H223" s="2"/>
-      <c r="I223" s="3"/>
+      <c r="C223" s="3"/>
+      <c r="D223" s="3"/>
+      <c r="E223" s="3"/>
+      <c r="F223" s="3"/>
+      <c r="G223" s="3"/>
+      <c r="H223" s="3"/>
+      <c r="I223" s="2"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
@@ -3787,13 +3787,13 @@
       <c r="B224">
         <v>222</v>
       </c>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
-      <c r="F224" s="2"/>
-      <c r="G224" s="2"/>
-      <c r="H224" s="2"/>
-      <c r="I224" s="3"/>
+      <c r="C224" s="3"/>
+      <c r="D224" s="3"/>
+      <c r="E224" s="3"/>
+      <c r="F224" s="3"/>
+      <c r="G224" s="3"/>
+      <c r="H224" s="3"/>
+      <c r="I224" s="2"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
@@ -3802,13 +3802,13 @@
       <c r="B225">
         <v>223</v>
       </c>
-      <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
-      <c r="F225" s="2"/>
-      <c r="G225" s="2"/>
-      <c r="H225" s="2"/>
-      <c r="I225" s="3"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3"/>
+      <c r="E225" s="3"/>
+      <c r="F225" s="3"/>
+      <c r="G225" s="3"/>
+      <c r="H225" s="3"/>
+      <c r="I225" s="2"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
@@ -3817,13 +3817,13 @@
       <c r="B226">
         <v>224</v>
       </c>
-      <c r="C226" s="2"/>
-      <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
-      <c r="G226" s="2"/>
-      <c r="H226" s="2"/>
-      <c r="I226" s="3"/>
+      <c r="C226" s="3"/>
+      <c r="D226" s="3"/>
+      <c r="E226" s="3"/>
+      <c r="F226" s="3"/>
+      <c r="G226" s="3"/>
+      <c r="H226" s="3"/>
+      <c r="I226" s="2"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
@@ -3832,13 +3832,13 @@
       <c r="B227">
         <v>225</v>
       </c>
-      <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
-      <c r="H227" s="2"/>
-      <c r="I227" s="3"/>
+      <c r="C227" s="3"/>
+      <c r="D227" s="3"/>
+      <c r="E227" s="3"/>
+      <c r="F227" s="3"/>
+      <c r="G227" s="3"/>
+      <c r="H227" s="3"/>
+      <c r="I227" s="2"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
@@ -3847,13 +3847,13 @@
       <c r="B228">
         <v>226</v>
       </c>
-      <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
-      <c r="G228" s="2"/>
-      <c r="H228" s="2"/>
-      <c r="I228" s="3"/>
+      <c r="C228" s="3"/>
+      <c r="D228" s="3"/>
+      <c r="E228" s="3"/>
+      <c r="F228" s="3"/>
+      <c r="G228" s="3"/>
+      <c r="H228" s="3"/>
+      <c r="I228" s="2"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
@@ -3862,13 +3862,13 @@
       <c r="B229">
         <v>227</v>
       </c>
-      <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="2"/>
-      <c r="G229" s="2"/>
-      <c r="H229" s="2"/>
-      <c r="I229" s="3"/>
+      <c r="C229" s="3"/>
+      <c r="D229" s="3"/>
+      <c r="E229" s="3"/>
+      <c r="F229" s="3"/>
+      <c r="G229" s="3"/>
+      <c r="H229" s="3"/>
+      <c r="I229" s="2"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
@@ -3877,13 +3877,13 @@
       <c r="B230">
         <v>228</v>
       </c>
-      <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
-      <c r="G230" s="2"/>
-      <c r="H230" s="2"/>
-      <c r="I230" s="3"/>
+      <c r="C230" s="3"/>
+      <c r="D230" s="3"/>
+      <c r="E230" s="3"/>
+      <c r="F230" s="3"/>
+      <c r="G230" s="3"/>
+      <c r="H230" s="3"/>
+      <c r="I230" s="2"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
@@ -3892,13 +3892,13 @@
       <c r="B231">
         <v>229</v>
       </c>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
-      <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
-      <c r="G231" s="2"/>
-      <c r="H231" s="2"/>
-      <c r="I231" s="3"/>
+      <c r="C231" s="3"/>
+      <c r="D231" s="3"/>
+      <c r="E231" s="3"/>
+      <c r="F231" s="3"/>
+      <c r="G231" s="3"/>
+      <c r="H231" s="3"/>
+      <c r="I231" s="2"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
@@ -3907,13 +3907,13 @@
       <c r="B232">
         <v>230</v>
       </c>
-      <c r="C232" s="2"/>
-      <c r="D232" s="2"/>
-      <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
-      <c r="G232" s="2"/>
-      <c r="H232" s="2"/>
-      <c r="I232" s="3"/>
+      <c r="C232" s="3"/>
+      <c r="D232" s="3"/>
+      <c r="E232" s="3"/>
+      <c r="F232" s="3"/>
+      <c r="G232" s="3"/>
+      <c r="H232" s="3"/>
+      <c r="I232" s="2"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
@@ -3922,13 +3922,13 @@
       <c r="B233">
         <v>231</v>
       </c>
-      <c r="C233" s="2"/>
-      <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
-      <c r="F233" s="2"/>
-      <c r="G233" s="2"/>
-      <c r="H233" s="2"/>
-      <c r="I233" s="3"/>
+      <c r="C233" s="3"/>
+      <c r="D233" s="3"/>
+      <c r="E233" s="3"/>
+      <c r="F233" s="3"/>
+      <c r="G233" s="3"/>
+      <c r="H233" s="3"/>
+      <c r="I233" s="2"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
@@ -3937,13 +3937,13 @@
       <c r="B234">
         <v>232</v>
       </c>
-      <c r="C234" s="2"/>
-      <c r="D234" s="2"/>
-      <c r="E234" s="2"/>
-      <c r="F234" s="2"/>
-      <c r="G234" s="2"/>
-      <c r="H234" s="2"/>
-      <c r="I234" s="3"/>
+      <c r="C234" s="3"/>
+      <c r="D234" s="3"/>
+      <c r="E234" s="3"/>
+      <c r="F234" s="3"/>
+      <c r="G234" s="3"/>
+      <c r="H234" s="3"/>
+      <c r="I234" s="2"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
@@ -3952,13 +3952,13 @@
       <c r="B235">
         <v>233</v>
       </c>
-      <c r="C235" s="2"/>
-      <c r="D235" s="2"/>
-      <c r="E235" s="2"/>
-      <c r="F235" s="2"/>
-      <c r="G235" s="2"/>
-      <c r="H235" s="2"/>
-      <c r="I235" s="3"/>
+      <c r="C235" s="3"/>
+      <c r="D235" s="3"/>
+      <c r="E235" s="3"/>
+      <c r="F235" s="3"/>
+      <c r="G235" s="3"/>
+      <c r="H235" s="3"/>
+      <c r="I235" s="2"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
@@ -3967,13 +3967,13 @@
       <c r="B236">
         <v>234</v>
       </c>
-      <c r="C236" s="2"/>
-      <c r="D236" s="2"/>
-      <c r="E236" s="2"/>
-      <c r="F236" s="2"/>
-      <c r="G236" s="2"/>
-      <c r="H236" s="2"/>
-      <c r="I236" s="3"/>
+      <c r="C236" s="3"/>
+      <c r="D236" s="3"/>
+      <c r="E236" s="3"/>
+      <c r="F236" s="3"/>
+      <c r="G236" s="3"/>
+      <c r="H236" s="3"/>
+      <c r="I236" s="2"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
@@ -3982,13 +3982,13 @@
       <c r="B237">
         <v>235</v>
       </c>
-      <c r="C237" s="2"/>
-      <c r="D237" s="2"/>
-      <c r="E237" s="2"/>
-      <c r="F237" s="2"/>
-      <c r="G237" s="2"/>
-      <c r="H237" s="2"/>
-      <c r="I237" s="3"/>
+      <c r="C237" s="3"/>
+      <c r="D237" s="3"/>
+      <c r="E237" s="3"/>
+      <c r="F237" s="3"/>
+      <c r="G237" s="3"/>
+      <c r="H237" s="3"/>
+      <c r="I237" s="2"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
@@ -3997,13 +3997,13 @@
       <c r="B238">
         <v>236</v>
       </c>
-      <c r="C238" s="2"/>
-      <c r="D238" s="2"/>
-      <c r="E238" s="2"/>
-      <c r="F238" s="2"/>
-      <c r="G238" s="2"/>
-      <c r="H238" s="2"/>
-      <c r="I238" s="3"/>
+      <c r="C238" s="3"/>
+      <c r="D238" s="3"/>
+      <c r="E238" s="3"/>
+      <c r="F238" s="3"/>
+      <c r="G238" s="3"/>
+      <c r="H238" s="3"/>
+      <c r="I238" s="2"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
@@ -4012,13 +4012,13 @@
       <c r="B239">
         <v>237</v>
       </c>
-      <c r="C239" s="2"/>
-      <c r="D239" s="2"/>
-      <c r="E239" s="2"/>
-      <c r="F239" s="2"/>
-      <c r="G239" s="2"/>
-      <c r="H239" s="2"/>
-      <c r="I239" s="3"/>
+      <c r="C239" s="3"/>
+      <c r="D239" s="3"/>
+      <c r="E239" s="3"/>
+      <c r="F239" s="3"/>
+      <c r="G239" s="3"/>
+      <c r="H239" s="3"/>
+      <c r="I239" s="2"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
@@ -4027,13 +4027,13 @@
       <c r="B240">
         <v>238</v>
       </c>
-      <c r="C240" s="2"/>
-      <c r="D240" s="2"/>
-      <c r="E240" s="2"/>
-      <c r="F240" s="2"/>
-      <c r="G240" s="2"/>
-      <c r="H240" s="2"/>
-      <c r="I240" s="3"/>
+      <c r="C240" s="3"/>
+      <c r="D240" s="3"/>
+      <c r="E240" s="3"/>
+      <c r="F240" s="3"/>
+      <c r="G240" s="3"/>
+      <c r="H240" s="3"/>
+      <c r="I240" s="2"/>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
@@ -4042,13 +4042,13 @@
       <c r="B241">
         <v>239</v>
       </c>
-      <c r="C241" s="2"/>
-      <c r="D241" s="2"/>
-      <c r="E241" s="2"/>
-      <c r="F241" s="2"/>
-      <c r="G241" s="2"/>
-      <c r="H241" s="2"/>
-      <c r="I241" s="3"/>
+      <c r="C241" s="3"/>
+      <c r="D241" s="3"/>
+      <c r="E241" s="3"/>
+      <c r="F241" s="3"/>
+      <c r="G241" s="3"/>
+      <c r="H241" s="3"/>
+      <c r="I241" s="2"/>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
@@ -4057,13 +4057,13 @@
       <c r="B242">
         <v>240</v>
       </c>
-      <c r="C242" s="2"/>
-      <c r="D242" s="2"/>
-      <c r="E242" s="2"/>
-      <c r="F242" s="2"/>
-      <c r="G242" s="2"/>
-      <c r="H242" s="2"/>
-      <c r="I242" s="3"/>
+      <c r="C242" s="3"/>
+      <c r="D242" s="3"/>
+      <c r="E242" s="3"/>
+      <c r="F242" s="3"/>
+      <c r="G242" s="3"/>
+      <c r="H242" s="3"/>
+      <c r="I242" s="2"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
@@ -4072,13 +4072,13 @@
       <c r="B243">
         <v>241</v>
       </c>
-      <c r="C243" s="2"/>
-      <c r="D243" s="2"/>
-      <c r="E243" s="2"/>
-      <c r="F243" s="2"/>
-      <c r="G243" s="2"/>
-      <c r="H243" s="2"/>
-      <c r="I243" s="3"/>
+      <c r="C243" s="3"/>
+      <c r="D243" s="3"/>
+      <c r="E243" s="3"/>
+      <c r="F243" s="3"/>
+      <c r="G243" s="3"/>
+      <c r="H243" s="3"/>
+      <c r="I243" s="2"/>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
@@ -4087,13 +4087,13 @@
       <c r="B244">
         <v>242</v>
       </c>
-      <c r="C244" s="2"/>
-      <c r="D244" s="2"/>
-      <c r="E244" s="2"/>
-      <c r="F244" s="2"/>
-      <c r="G244" s="2"/>
-      <c r="H244" s="2"/>
-      <c r="I244" s="3"/>
+      <c r="C244" s="3"/>
+      <c r="D244" s="3"/>
+      <c r="E244" s="3"/>
+      <c r="F244" s="3"/>
+      <c r="G244" s="3"/>
+      <c r="H244" s="3"/>
+      <c r="I244" s="2"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
@@ -4102,13 +4102,13 @@
       <c r="B245">
         <v>243</v>
       </c>
-      <c r="C245" s="2"/>
-      <c r="D245" s="2"/>
-      <c r="E245" s="2"/>
-      <c r="F245" s="2"/>
-      <c r="G245" s="2"/>
-      <c r="H245" s="2"/>
-      <c r="I245" s="3"/>
+      <c r="C245" s="3"/>
+      <c r="D245" s="3"/>
+      <c r="E245" s="3"/>
+      <c r="F245" s="3"/>
+      <c r="G245" s="3"/>
+      <c r="H245" s="3"/>
+      <c r="I245" s="2"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
@@ -4117,13 +4117,13 @@
       <c r="B246">
         <v>244</v>
       </c>
-      <c r="C246" s="2"/>
-      <c r="D246" s="2"/>
-      <c r="E246" s="2"/>
-      <c r="F246" s="2"/>
-      <c r="G246" s="2"/>
-      <c r="H246" s="2"/>
-      <c r="I246" s="3"/>
+      <c r="C246" s="3"/>
+      <c r="D246" s="3"/>
+      <c r="E246" s="3"/>
+      <c r="F246" s="3"/>
+      <c r="G246" s="3"/>
+      <c r="H246" s="3"/>
+      <c r="I246" s="2"/>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
@@ -4132,13 +4132,13 @@
       <c r="B247">
         <v>245</v>
       </c>
-      <c r="C247" s="2"/>
-      <c r="D247" s="2"/>
-      <c r="E247" s="2"/>
-      <c r="F247" s="2"/>
-      <c r="G247" s="2"/>
-      <c r="H247" s="2"/>
-      <c r="I247" s="3"/>
+      <c r="C247" s="3"/>
+      <c r="D247" s="3"/>
+      <c r="E247" s="3"/>
+      <c r="F247" s="3"/>
+      <c r="G247" s="3"/>
+      <c r="H247" s="3"/>
+      <c r="I247" s="2"/>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
@@ -4147,13 +4147,13 @@
       <c r="B248">
         <v>246</v>
       </c>
-      <c r="C248" s="2"/>
-      <c r="D248" s="2"/>
-      <c r="E248" s="2"/>
-      <c r="F248" s="2"/>
-      <c r="G248" s="2"/>
-      <c r="H248" s="2"/>
-      <c r="I248" s="3"/>
+      <c r="C248" s="3"/>
+      <c r="D248" s="3"/>
+      <c r="E248" s="3"/>
+      <c r="F248" s="3"/>
+      <c r="G248" s="3"/>
+      <c r="H248" s="3"/>
+      <c r="I248" s="2"/>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
@@ -4162,13 +4162,13 @@
       <c r="B249">
         <v>247</v>
       </c>
-      <c r="C249" s="2"/>
-      <c r="D249" s="2"/>
-      <c r="E249" s="2"/>
-      <c r="F249" s="2"/>
-      <c r="G249" s="2"/>
-      <c r="H249" s="2"/>
-      <c r="I249" s="3"/>
+      <c r="C249" s="3"/>
+      <c r="D249" s="3"/>
+      <c r="E249" s="3"/>
+      <c r="F249" s="3"/>
+      <c r="G249" s="3"/>
+      <c r="H249" s="3"/>
+      <c r="I249" s="2"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
@@ -4177,13 +4177,13 @@
       <c r="B250">
         <v>248</v>
       </c>
-      <c r="C250" s="2"/>
-      <c r="D250" s="2"/>
-      <c r="E250" s="2"/>
-      <c r="F250" s="2"/>
-      <c r="G250" s="2"/>
-      <c r="H250" s="2"/>
-      <c r="I250" s="3"/>
+      <c r="C250" s="3"/>
+      <c r="D250" s="3"/>
+      <c r="E250" s="3"/>
+      <c r="F250" s="3"/>
+      <c r="G250" s="3"/>
+      <c r="H250" s="3"/>
+      <c r="I250" s="2"/>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
@@ -4192,13 +4192,13 @@
       <c r="B251">
         <v>249</v>
       </c>
-      <c r="C251" s="2"/>
-      <c r="D251" s="2"/>
-      <c r="E251" s="2"/>
-      <c r="F251" s="2"/>
-      <c r="G251" s="2"/>
-      <c r="H251" s="2"/>
-      <c r="I251" s="3"/>
+      <c r="C251" s="3"/>
+      <c r="D251" s="3"/>
+      <c r="E251" s="3"/>
+      <c r="F251" s="3"/>
+      <c r="G251" s="3"/>
+      <c r="H251" s="3"/>
+      <c r="I251" s="2"/>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
@@ -4207,13 +4207,13 @@
       <c r="B252">
         <v>250</v>
       </c>
-      <c r="C252" s="2"/>
-      <c r="D252" s="2"/>
-      <c r="E252" s="2"/>
-      <c r="F252" s="2"/>
-      <c r="G252" s="2"/>
-      <c r="H252" s="2"/>
-      <c r="I252" s="3"/>
+      <c r="C252" s="3"/>
+      <c r="D252" s="3"/>
+      <c r="E252" s="3"/>
+      <c r="F252" s="3"/>
+      <c r="G252" s="3"/>
+      <c r="H252" s="3"/>
+      <c r="I252" s="2"/>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
@@ -4222,13 +4222,13 @@
       <c r="B253">
         <v>251</v>
       </c>
-      <c r="C253" s="2"/>
-      <c r="D253" s="2"/>
-      <c r="E253" s="2"/>
-      <c r="F253" s="2"/>
-      <c r="G253" s="2"/>
-      <c r="H253" s="2"/>
-      <c r="I253" s="3"/>
+      <c r="C253" s="3"/>
+      <c r="D253" s="3"/>
+      <c r="E253" s="3"/>
+      <c r="F253" s="3"/>
+      <c r="G253" s="3"/>
+      <c r="H253" s="3"/>
+      <c r="I253" s="2"/>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
@@ -4237,13 +4237,13 @@
       <c r="B254">
         <v>252</v>
       </c>
-      <c r="C254" s="2"/>
-      <c r="D254" s="2"/>
-      <c r="E254" s="2"/>
-      <c r="F254" s="2"/>
-      <c r="G254" s="2"/>
-      <c r="H254" s="2"/>
-      <c r="I254" s="3"/>
+      <c r="C254" s="3"/>
+      <c r="D254" s="3"/>
+      <c r="E254" s="3"/>
+      <c r="F254" s="3"/>
+      <c r="G254" s="3"/>
+      <c r="H254" s="3"/>
+      <c r="I254" s="2"/>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
@@ -4252,13 +4252,13 @@
       <c r="B255">
         <v>253</v>
       </c>
-      <c r="C255" s="2"/>
-      <c r="D255" s="2"/>
-      <c r="E255" s="2"/>
-      <c r="F255" s="2"/>
-      <c r="G255" s="2"/>
-      <c r="H255" s="2"/>
-      <c r="I255" s="3"/>
+      <c r="C255" s="3"/>
+      <c r="D255" s="3"/>
+      <c r="E255" s="3"/>
+      <c r="F255" s="3"/>
+      <c r="G255" s="3"/>
+      <c r="H255" s="3"/>
+      <c r="I255" s="2"/>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
@@ -4267,13 +4267,13 @@
       <c r="B256">
         <v>254</v>
       </c>
-      <c r="C256" s="2"/>
-      <c r="D256" s="2"/>
-      <c r="E256" s="2"/>
-      <c r="F256" s="2"/>
-      <c r="G256" s="2"/>
-      <c r="H256" s="2"/>
-      <c r="I256" s="3"/>
+      <c r="C256" s="3"/>
+      <c r="D256" s="3"/>
+      <c r="E256" s="3"/>
+      <c r="F256" s="3"/>
+      <c r="G256" s="3"/>
+      <c r="H256" s="3"/>
+      <c r="I256" s="2"/>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
@@ -4282,72 +4282,62 @@
       <c r="B257">
         <v>255</v>
       </c>
-      <c r="C257" s="2"/>
-      <c r="D257" s="2"/>
-      <c r="E257" s="2"/>
-      <c r="F257" s="2"/>
-      <c r="G257" s="2"/>
-      <c r="H257" s="2"/>
-      <c r="I257" s="3"/>
+      <c r="C257" s="3"/>
+      <c r="D257" s="3"/>
+      <c r="E257" s="3"/>
+      <c r="F257" s="3"/>
+      <c r="G257" s="3"/>
+      <c r="H257" s="3"/>
+      <c r="I257" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="126">
-    <mergeCell ref="H2:H129"/>
-    <mergeCell ref="H130:H257"/>
-    <mergeCell ref="F162:F193"/>
-    <mergeCell ref="F194:F225"/>
-    <mergeCell ref="F226:F257"/>
-    <mergeCell ref="G2:G65"/>
-    <mergeCell ref="G66:G129"/>
-    <mergeCell ref="G130:G193"/>
-    <mergeCell ref="G194:G257"/>
-    <mergeCell ref="E178:E193"/>
-    <mergeCell ref="E194:E209"/>
-    <mergeCell ref="E210:E225"/>
-    <mergeCell ref="E226:E241"/>
-    <mergeCell ref="E242:E257"/>
-    <mergeCell ref="F2:F33"/>
-    <mergeCell ref="F34:F65"/>
-    <mergeCell ref="F66:F97"/>
-    <mergeCell ref="F98:F129"/>
-    <mergeCell ref="F130:F161"/>
-    <mergeCell ref="E82:E97"/>
-    <mergeCell ref="E98:E113"/>
-    <mergeCell ref="E114:E129"/>
-    <mergeCell ref="E130:E145"/>
-    <mergeCell ref="E146:E161"/>
-    <mergeCell ref="E162:E177"/>
-    <mergeCell ref="E2:E17"/>
-    <mergeCell ref="E18:E33"/>
-    <mergeCell ref="E34:E49"/>
-    <mergeCell ref="E50:E65"/>
-    <mergeCell ref="E66:E81"/>
-    <mergeCell ref="D242:D249"/>
-    <mergeCell ref="D250:D257"/>
-    <mergeCell ref="D194:D201"/>
-    <mergeCell ref="D202:D209"/>
-    <mergeCell ref="D210:D217"/>
-    <mergeCell ref="D218:D225"/>
-    <mergeCell ref="D226:D233"/>
-    <mergeCell ref="D234:D241"/>
-    <mergeCell ref="D146:D153"/>
-    <mergeCell ref="D154:D161"/>
-    <mergeCell ref="D162:D169"/>
-    <mergeCell ref="D170:D177"/>
-    <mergeCell ref="D178:D185"/>
-    <mergeCell ref="D186:D193"/>
-    <mergeCell ref="D98:D105"/>
-    <mergeCell ref="D106:D113"/>
-    <mergeCell ref="D114:D121"/>
-    <mergeCell ref="D122:D129"/>
-    <mergeCell ref="D130:D137"/>
-    <mergeCell ref="D138:D145"/>
-    <mergeCell ref="D50:D57"/>
-    <mergeCell ref="D58:D65"/>
-    <mergeCell ref="D66:D73"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="D82:D89"/>
-    <mergeCell ref="D90:D97"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="C166:C169"/>
     <mergeCell ref="C242:C245"/>
     <mergeCell ref="C246:C249"/>
     <mergeCell ref="C250:C253"/>
@@ -4372,52 +4362,62 @@
     <mergeCell ref="C214:C217"/>
     <mergeCell ref="C170:C173"/>
     <mergeCell ref="C174:C177"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="C158:C161"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="C166:C169"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D98:D105"/>
+    <mergeCell ref="D106:D113"/>
+    <mergeCell ref="D114:D121"/>
+    <mergeCell ref="D122:D129"/>
+    <mergeCell ref="D130:D137"/>
+    <mergeCell ref="D138:D145"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="D58:D65"/>
+    <mergeCell ref="D66:D73"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="D82:D89"/>
+    <mergeCell ref="D90:D97"/>
+    <mergeCell ref="D242:D249"/>
+    <mergeCell ref="D250:D257"/>
+    <mergeCell ref="D194:D201"/>
+    <mergeCell ref="D202:D209"/>
+    <mergeCell ref="D210:D217"/>
+    <mergeCell ref="D218:D225"/>
+    <mergeCell ref="D226:D233"/>
+    <mergeCell ref="D234:D241"/>
+    <mergeCell ref="D146:D153"/>
+    <mergeCell ref="D154:D161"/>
+    <mergeCell ref="D162:D169"/>
+    <mergeCell ref="D170:D177"/>
+    <mergeCell ref="D178:D185"/>
+    <mergeCell ref="D186:D193"/>
+    <mergeCell ref="E178:E193"/>
+    <mergeCell ref="E194:E209"/>
+    <mergeCell ref="E210:E225"/>
+    <mergeCell ref="E226:E241"/>
+    <mergeCell ref="E242:E257"/>
+    <mergeCell ref="F2:F33"/>
+    <mergeCell ref="F34:F65"/>
+    <mergeCell ref="F66:F97"/>
+    <mergeCell ref="F98:F129"/>
+    <mergeCell ref="F130:F161"/>
+    <mergeCell ref="E82:E97"/>
+    <mergeCell ref="E98:E113"/>
+    <mergeCell ref="E114:E129"/>
+    <mergeCell ref="E130:E145"/>
+    <mergeCell ref="E146:E161"/>
+    <mergeCell ref="E162:E177"/>
+    <mergeCell ref="E2:E17"/>
+    <mergeCell ref="E18:E33"/>
+    <mergeCell ref="E34:E49"/>
+    <mergeCell ref="E50:E65"/>
+    <mergeCell ref="E66:E81"/>
+    <mergeCell ref="H2:H129"/>
+    <mergeCell ref="H130:H257"/>
+    <mergeCell ref="F162:F193"/>
+    <mergeCell ref="F194:F225"/>
+    <mergeCell ref="F226:F257"/>
+    <mergeCell ref="G2:G65"/>
+    <mergeCell ref="G66:G129"/>
+    <mergeCell ref="G130:G193"/>
+    <mergeCell ref="G194:G257"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
